--- a/fuentes/contenidos/grado10/guion02/SolicitudGrafica_MA_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/SolicitudGrafica_MA_10_02_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado10\guion02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="210">
   <si>
     <t>Fecha:</t>
   </si>
@@ -608,12 +608,6 @@
     <t>Ilustración</t>
   </si>
   <si>
-    <t>Letras mayúsculas deben estar en itálica, por favor mantener los colores azul y rojo.</t>
-  </si>
-  <si>
-    <t>Por favor mantener los colores azul y rojo, las líneas deben terminar en flecha.</t>
-  </si>
-  <si>
     <t>Es una persona sentada frente a un computador, sobre el computador en la pared debe haber un reloj colgado, sobre la imagen e iniciando desde el ojo de la persona se trazan las líneas (una horizontal, otra apuntando al reloj y una apuntando hacia el teclado o algo que este debajo de la línea de visión), agregar las palabras: ángulo de elevación, recta horizontal y ángulo de depresión</t>
   </si>
   <si>
@@ -621,11 +615,6 @@
   </si>
   <si>
     <t>Por favor dejar las paretes sombreadas y rayadas como se indica en la imagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4°ESO-Matemáticas-La trigonometría-sección2
-http://profesores.aulaplaneta.com/#/cuaderno-estudio?AsignaturaID=35&amp;CursoID=5&amp;UnidadID=644&amp;Guion=MT_10_04 
-</t>
   </si>
   <si>
     <t>(Marcar la medida en grados de los ángulos suplementarios coloreándolos de color NARANJA y VERDE), la línea roja del soporte tambien se debe dejar</t>
@@ -639,9 +628,6 @@
   <si>
     <t>Imagen aprovechada de: 4°ESO-Matemáticas-La trigonometría-sección2
 http://profesores.aulaplaneta.com/#/cuaderno-estudio?AsignaturaID=35&amp;CursoID=5&amp;UnidadID=644&amp;Guion=MT_10_04</t>
-  </si>
-  <si>
-    <t>Por favor quitar las palabras: cateto adyacente y cateto opuesto</t>
   </si>
   <si>
     <t xml:space="preserve">Imagen aprovechada de: 4°ESO-Matemáticas-La trigonometría-sección2
@@ -662,11 +648,6 @@
 http://profesores.aulaplaneta.com/#/cuaderno-estudio?AsignaturaID=35&amp;CursoID=5&amp;UnidadID=644&amp;Guion=MT_10_04</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Imagen aprovechada de: 4°ESO-Matemáticas-La trigonometría-sección2
-http://profesores.aulaplaneta.com/#/cuaderno-estudio?AsignaturaID=35&amp;CursoID=5&amp;UnidadID=644&amp;Guion=MT_10_04</t>
-  </si>
-  <si>
     <t>magen aprovechada de: 4°ESO-Matemáticas-La trigonometría-sección2
 http://profesores.aulaplaneta.com/#/cuaderno-estudio?AsignaturaID=35&amp;CursoID=5&amp;UnidadID=644&amp;Guion=MT_10_04</t>
   </si>
@@ -678,6 +659,12 @@
   </si>
   <si>
     <t>http://hotmath.com/hotmath_help/spanish/topics/coterminal-angles.html</t>
+  </si>
+  <si>
+    <t>Letras mayúsculas deben estar en itálica, por favor mantener los colores azul y rojo. La idea es mostrar la forma de los ángulos por ello las felchas azules deben tener la misma longitud, hasta el punto D</t>
+  </si>
+  <si>
+    <t>Por favor mantener los colores azul y rojo, las líneas deben terminar en flecha. Que la letra Á de la palabra ángulo este en mayúscula (solo la primer letra)</t>
   </si>
 </sst>
 </file>
@@ -1845,57 +1832,6 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>2105025</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
@@ -2133,69 +2069,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>2276475</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2060" name="Object 12" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2060"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>198438</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>541338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>801369</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1938338</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>77469</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2281238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2216,8 +2101,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16502063" y="24606251"/>
-          <a:ext cx="3754120" cy="1739900"/>
+          <a:off x="16776700" y="23629938"/>
+          <a:ext cx="3779519" cy="1739900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2229,15 +2114,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>106363</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2225675</xdr:rowOff>
+      <xdr:colOff>125413</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2320925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2261,8 +2146,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16533813" y="27130375"/>
-          <a:ext cx="2201863" cy="1987550"/>
+          <a:off x="16713200" y="25784175"/>
+          <a:ext cx="2214563" cy="1987550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2284,15 +2169,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>509905</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2209165</xdr:rowOff>
+      <xdr:colOff>719455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2475865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2313,8 +2198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16375063" y="29503688"/>
-          <a:ext cx="2764155" cy="2209165"/>
+          <a:off x="16744950" y="28213050"/>
+          <a:ext cx="2776855" cy="2209165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2377,15 +2262,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>141741</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>407080</xdr:rowOff>
+      <xdr:colOff>160791</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>197530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>351290</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>2915330</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2209800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2407,8 +2292,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16511134" y="32234187"/>
-          <a:ext cx="4128407" cy="2508250"/>
+          <a:off x="16696191" y="30753730"/>
+          <a:ext cx="3706359" cy="2012270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2426,66 +2311,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
-          <xdr:row>21</xdr:row>
-          <xdr:rowOff>2438400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2070" name="Object 22" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2070"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>352425</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>533400</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>514350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>2867025</xdr:rowOff>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>2847975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2528,15 +2362,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>2419350</xdr:rowOff>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>2438400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2834,15 +2668,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>133595</xdr:colOff>
+          <xdr:colOff>133350</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>54429</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>307520</xdr:colOff>
+          <xdr:colOff>304800</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>2492828</xdr:rowOff>
+          <xdr:rowOff>2495550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3073,15 +2907,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>231322</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>340179</xdr:rowOff>
+          <xdr:rowOff>342900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>68036</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>2245179</xdr:rowOff>
+          <xdr:rowOff>2247900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3124,15 +2958,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>217714</xdr:colOff>
+          <xdr:colOff>219075</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>81643</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>140153</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>3186793</xdr:rowOff>
+          <xdr:rowOff>3190875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3175,15 +3009,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>231322</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>108858</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>412297</xdr:colOff>
+          <xdr:colOff>409575</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>3404508</xdr:rowOff>
+          <xdr:rowOff>3400425</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3226,15 +3060,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>54429</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>176895</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>684419</xdr:colOff>
+          <xdr:colOff>685800</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>3360965</xdr:rowOff>
+          <xdr:rowOff>3362325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3412,15 +3246,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>244929</xdr:colOff>
+          <xdr:colOff>247650</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>68035</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>664029</xdr:colOff>
+          <xdr:colOff>666750</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>2325460</xdr:rowOff>
+          <xdr:rowOff>2324100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3461,15 +3295,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
+      <xdr:colOff>168728</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:rowOff>125186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>499381</xdr:colOff>
+      <xdr:colOff>423181</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>3020786</xdr:rowOff>
+      <xdr:rowOff>2982686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3483,8 +3317,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16763999" y="90133715"/>
-          <a:ext cx="3343275" cy="2857500"/>
+          <a:off x="16704128" y="91241336"/>
+          <a:ext cx="3359603" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3501,6 +3335,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>54429</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>13607</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>701193</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>2911929</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2109" name="Object 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2109"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4219,9 +4104,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4505,7 +4390,7 @@
         <v>M10B</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="11" customFormat="1" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
@@ -4540,7 +4425,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K10"/>
       <c r="O10" s="2" t="str">
@@ -4583,7 +4468,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K11"/>
       <c r="O11" s="2" t="str">
@@ -4597,7 +4482,7 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4667,7 +4552,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -4710,7 +4595,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -4794,7 +4679,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
@@ -4808,7 +4693,7 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4837,7 +4722,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K17"/>
       <c r="O17" s="2" t="str">
@@ -4880,7 +4765,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
@@ -4923,7 +4808,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
@@ -4937,7 +4822,7 @@
         <v>IMG11</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4965,9 +4850,7 @@
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="64" t="s">
-        <v>201</v>
-      </c>
+      <c r="J20" s="64"/>
       <c r="K20" s="66"/>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
@@ -4980,7 +4863,7 @@
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5021,7 +4904,7 @@
         <v>IMG13</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5059,14 +4942,12 @@
     <row r="23" spans="1:15" s="11" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG14</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>202</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B23" s="62"/>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
+        <v/>
       </c>
       <c r="D23" s="63" t="s">
         <v>192</v>
@@ -5076,19 +4957,19 @@
       </c>
       <c r="F23" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG14_small</v>
+        <v/>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG14_zoom</v>
+        <v/>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J23" s="64"/>
       <c r="K23"/>
@@ -5100,14 +4981,12 @@
     <row r="24" spans="1:15" s="11" customFormat="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>IMG15</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>202</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B24" s="62"/>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
+        <v/>
       </c>
       <c r="D24" s="63" t="s">
         <v>192</v>
@@ -5117,19 +4996,19 @@
       </c>
       <c r="F24" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG15_small</v>
+        <v/>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG15_zoom</v>
+        <v/>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
+        <v/>
       </c>
       <c r="J24" s="63"/>
       <c r="K24"/>
@@ -5139,12 +5018,12 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="str">
+      <c r="A25" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG16</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5156,17 +5035,17 @@
       <c r="E25" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="13" t="str">
+      <c r="F25" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG16_small</v>
-      </c>
-      <c r="G25" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" s="13" t="e">
         <f ca="1">IF($F25&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H25" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG16_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I25" s="13" t="str">
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5176,12 +5055,12 @@
       <c r="K25"/>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
+      <c r="A26" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG17</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5193,17 +5072,17 @@
       <c r="E26" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="13" t="str">
+      <c r="F26" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG17_small</v>
-      </c>
-      <c r="G26" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" s="13" t="e">
         <f ca="1">IF($F26&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H26" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG17_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="13" t="str">
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5213,12 +5092,12 @@
       <c r="K26"/>
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="str">
+      <c r="A27" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG18</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5230,17 +5109,17 @@
       <c r="E27" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="13" t="str">
+      <c r="F27" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG18_small</v>
-      </c>
-      <c r="G27" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" s="13" t="e">
         <f ca="1">IF($F27&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H27" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG18_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="13" t="str">
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5251,12 +5130,12 @@
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15" s="11" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="str">
+      <c r="A28" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG19</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5268,17 +5147,17 @@
       <c r="E28" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="13" t="str">
+      <c r="F28" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG19_small</v>
-      </c>
-      <c r="G28" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" s="13" t="e">
         <f ca="1">IF($F28&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H28" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG19_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I28" s="13" t="str">
         <f ca="1">IF(OR($B28&lt;&gt;"",$J28&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5288,12 +5167,12 @@
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" ht="309.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="str">
+      <c r="A29" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG20</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5305,17 +5184,17 @@
       <c r="E29" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="13" t="str">
+      <c r="F29" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG20_small</v>
-      </c>
-      <c r="G29" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="13" t="e">
         <f ca="1">IF($F29&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H29" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG20_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I29" s="13" t="str">
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5325,12 +5204,12 @@
       <c r="K29"/>
     </row>
     <row r="30" spans="1:15" s="11" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG21</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5342,17 +5221,17 @@
       <c r="E30" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="13" t="str">
+      <c r="F30" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG21_small</v>
-      </c>
-      <c r="G30" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G30" s="13" t="e">
         <f ca="1">IF($F30&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H30" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H30" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG21_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I30" s="13" t="str">
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5362,12 +5241,12 @@
       <c r="K30"/>
     </row>
     <row r="31" spans="1:15" s="11" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="str">
+      <c r="A31" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG22</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5379,17 +5258,17 @@
       <c r="E31" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="13" t="str">
+      <c r="F31" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG22_small</v>
-      </c>
-      <c r="G31" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G31" s="13" t="e">
         <f ca="1">IF($F31&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H31" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H31" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG22_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="13" t="str">
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5399,12 +5278,12 @@
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
+      <c r="A32" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG23</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5416,17 +5295,17 @@
       <c r="E32" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="13" t="str">
+      <c r="F32" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG23_small</v>
-      </c>
-      <c r="G32" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G32" s="13" t="e">
         <f ca="1">IF($F32&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H32" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H32" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG23_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="13" t="str">
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5436,12 +5315,12 @@
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:15" s="11" customFormat="1" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="str">
+      <c r="A33" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG24</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5453,17 +5332,17 @@
       <c r="E33" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="13" t="str">
+      <c r="F33" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG24_small</v>
-      </c>
-      <c r="G33" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G33" s="13" t="e">
         <f ca="1">IF($F33&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H33" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG24_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I33" s="13" t="str">
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5473,12 +5352,12 @@
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:15" s="11" customFormat="1" ht="237.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="str">
+      <c r="A34" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C34" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5490,17 +5369,17 @@
       <c r="E34" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="13" t="str">
+      <c r="F34" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG25_small</v>
-      </c>
-      <c r="G34" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G34" s="13" t="e">
         <f ca="1">IF($F34&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H34" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG25_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I34" s="13" t="str">
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5511,12 +5390,12 @@
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" s="11" customFormat="1" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="str">
+      <c r="A35" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG26</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C35" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5528,17 +5407,17 @@
       <c r="E35" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="13" t="str">
+      <c r="F35" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG26_small</v>
-      </c>
-      <c r="G35" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G35" s="13" t="e">
         <f ca="1">IF($F35&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H35" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H35" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG26_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I35" s="13" t="str">
         <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5549,9 +5428,9 @@
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" s="11" customFormat="1" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG27</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>191</v>
@@ -5566,17 +5445,17 @@
       <c r="E36" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="13" t="str">
+      <c r="F36" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG27_small</v>
-      </c>
-      <c r="G36" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" s="13" t="e">
         <f ca="1">IF($F36&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H36" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG27_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I36" s="13" t="str">
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5587,9 +5466,9 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" s="11" customFormat="1" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="str">
+      <c r="A37" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG28</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>191</v>
@@ -5604,17 +5483,17 @@
       <c r="E37" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="13" t="str">
+      <c r="F37" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG28_small</v>
-      </c>
-      <c r="G37" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G37" s="13" t="e">
         <f ca="1">IF($F37&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H37" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG28_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I37" s="13" t="str">
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5624,9 +5503,9 @@
       <c r="K37"/>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="str">
+      <c r="A38" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG29</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>191</v>
@@ -5641,17 +5520,17 @@
       <c r="E38" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="13" t="str">
+      <c r="F38" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG29_small</v>
-      </c>
-      <c r="G38" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G38" s="13" t="e">
         <f ca="1">IF($F38&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H38" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG29_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I38" s="13" t="str">
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5661,9 +5540,9 @@
       <c r="K38"/>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" ht="288.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="str">
+      <c r="A39" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG30</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>191</v>
@@ -5678,31 +5557,31 @@
       <c r="E39" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="13" t="str">
+      <c r="F39" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG30_small</v>
-      </c>
-      <c r="G39" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G39" s="13" t="e">
         <f ca="1">IF($F39&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H39" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG30_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I39" s="13" t="str">
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J39" s="63" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="K39" s="65"/>
     </row>
     <row r="40" spans="1:15" s="11" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="str">
+      <c r="A40" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG31</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B40" s="62" t="s">
         <v>191</v>
@@ -5717,34 +5596,34 @@
       <c r="E40" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="13" t="str">
+      <c r="F40" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG31_small</v>
-      </c>
-      <c r="G40" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G40" s="13" t="e">
         <f ca="1">IF($F40&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H40" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG31_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I40" s="13" t="str">
         <f ca="1">IF(OR($B40&lt;&gt;"",$J40&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J40" s="63" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K40"/>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="str">
+      <c r="A41" s="12" t="e">
         <f t="shared" si="6"/>
-        <v>IMG32</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C41" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5753,20 +5632,18 @@
       <c r="D41" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="E41" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="F41" s="13" t="str">
+      <c r="E41"/>
+      <c r="F41" s="13" t="e">
         <f t="shared" si="4"/>
-        <v>MA_10_02_CO_IMG32_small</v>
-      </c>
-      <c r="G41" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G41" s="13" t="e">
         <f ca="1">IF($F41&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
-      </c>
-      <c r="H41" s="13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41" s="13" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>MA_10_02_CO_IMG32_zoom</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I41" s="13" t="str">
         <f ca="1">IF(OR($B41&lt;&gt;"",$J41&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5775,7 +5652,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7885,7 +7762,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E40 E42:E108">
       <formula1>INDIRECT(IF(ISERROR(FIND(" ",$E$9)),$E$9,MID($E$9,1,FIND(" ",$E$9))))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
@@ -7899,33 +7776,8 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2051" r:id="rId4">
+        <oleObject progId="PBrush" shapeId="2053" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>2105025</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2051" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2053" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -7944,38 +7796,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2053" r:id="rId6"/>
+        <oleObject progId="PBrush" shapeId="2053" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2060" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>2276475</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2060" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2068" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+        <oleObject progId="PBrush" shapeId="2068" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -7994,23 +7821,48 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2068" r:id="rId10"/>
+        <oleObject progId="PBrush" shapeId="2068" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2070" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+        <oleObject progId="PBrush" shapeId="2073" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>514350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>2847975</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2073" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2074" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>2438400</xdr:rowOff>
               </to>
@@ -8019,63 +7871,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2070" r:id="rId12"/>
+        <oleObject progId="PBrush" shapeId="2074" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2073" r:id="rId14">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>352425</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>533400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>2867025</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2073" r:id="rId14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2074" r:id="rId16">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>342900</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>2419350</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2074" r:id="rId16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2077" r:id="rId18">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
+        <oleObject progId="PBrush" shapeId="2077" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8094,13 +7896,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2077" r:id="rId18"/>
+        <oleObject progId="PBrush" shapeId="2077" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2089" r:id="rId20">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId21">
+        <oleObject progId="PBrush" shapeId="2089" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8119,13 +7921,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2089" r:id="rId20"/>
+        <oleObject progId="PBrush" shapeId="2089" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2091" r:id="rId22">
-          <objectPr defaultSize="0" r:id="rId23">
+        <oleObject progId="PBrush" shapeId="2091" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8144,13 +7946,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2091" r:id="rId22"/>
+        <oleObject progId="PBrush" shapeId="2091" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2092" r:id="rId24">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId25">
+        <oleObject progId="PBrush" shapeId="2092" r:id="rId18">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8169,13 +7971,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2092" r:id="rId24"/>
+        <oleObject progId="PBrush" shapeId="2092" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2097" r:id="rId26">
-          <objectPr defaultSize="0" r:id="rId27">
+        <oleObject progId="PBrush" shapeId="2097" r:id="rId20">
+          <objectPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8194,13 +7996,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2097" r:id="rId26"/>
+        <oleObject progId="PBrush" shapeId="2097" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2101" r:id="rId28">
-          <objectPr defaultSize="0" r:id="rId29">
+        <oleObject progId="PBrush" shapeId="2101" r:id="rId22">
+          <objectPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8219,13 +8021,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2101" r:id="rId28"/>
+        <oleObject progId="PBrush" shapeId="2101" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2102" r:id="rId30">
-          <objectPr defaultSize="0" r:id="rId31">
+        <oleObject progId="PBrush" shapeId="2102" r:id="rId24">
+          <objectPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8244,13 +8046,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2102" r:id="rId30"/>
+        <oleObject progId="PBrush" shapeId="2102" r:id="rId24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2105" r:id="rId32">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId33">
+        <oleObject progId="PBrush" shapeId="2105" r:id="rId26">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId27">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8269,13 +8071,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2105" r:id="rId32"/>
+        <oleObject progId="PBrush" shapeId="2105" r:id="rId26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="PBrush" shapeId="2107" r:id="rId34">
-          <objectPr defaultSize="0" r:id="rId35">
+        <oleObject progId="PBrush" shapeId="2107" r:id="rId28">
+          <objectPr defaultSize="0" r:id="rId29">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -8294,7 +8096,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="PBrush" shapeId="2107" r:id="rId34"/>
+        <oleObject progId="PBrush" shapeId="2107" r:id="rId28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="PBrush" shapeId="2109" r:id="rId30">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId31">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>704850</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>2914650</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="PBrush" shapeId="2109" r:id="rId30"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/fuentes/contenidos/grado10/guion02/SolicitudGrafica_MA_10_02_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion02/SolicitudGrafica_MA_10_02_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="211">
   <si>
     <t>Fecha:</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>Por favor mantener los colores azul y rojo, las líneas deben terminar en flecha. Que la letra Á de la palabra ángulo este en mayúscula (solo la primer letra)</t>
+  </si>
+  <si>
+    <t>Icono de guion: TC_10_12.png y TC_10_12_normal.png</t>
   </si>
 </sst>
 </file>
@@ -2413,15 +2416,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>2676525</xdr:rowOff>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>2543175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2462,14 +2465,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>84365</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>299357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>166914</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>128814</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>2403112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2492,8 +2495,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16491858" y="46209857"/>
-          <a:ext cx="5623378" cy="2103755"/>
+          <a:off x="16619765" y="41771207"/>
+          <a:ext cx="5664199" cy="2103755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2509,15 +2512,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>357994</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138338</xdr:rowOff>
+      <xdr:colOff>129395</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>252639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>572849</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>2456089</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>829659</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2324101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2541,8 +2544,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16727387" y="48552552"/>
-          <a:ext cx="3303677" cy="2317751"/>
+          <a:off x="16664795" y="47210889"/>
+          <a:ext cx="2967214" cy="2071462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2567,14 +2570,14 @@
         <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>428625</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
           <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>2343150</xdr:rowOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>2228850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2617,15 +2620,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>247650</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>18</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>3657600</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>371475</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>3143250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2668,15 +2671,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>323850</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>590550</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>29</xdr:row>
-          <xdr:rowOff>2495550</xdr:rowOff>
+          <xdr:colOff>495300</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>3028950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2717,15 +2720,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:colOff>310243</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3935186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>277585</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>2503714</xdr:rowOff>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>2427514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2747,8 +2750,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16641536" y="59993893"/>
-          <a:ext cx="3924300" cy="2435678"/>
+          <a:off x="16845643" y="59199236"/>
+          <a:ext cx="3948792" cy="2435678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2764,15 +2767,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>258536</xdr:rowOff>
+      <xdr:colOff>269421</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>601436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>92528</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>1470751</xdr:rowOff>
+      <xdr:colOff>225878</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1813651</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2794,8 +2797,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16505464" y="62810572"/>
-          <a:ext cx="4705350" cy="1212215"/>
+          <a:off x="16804821" y="62380586"/>
+          <a:ext cx="4738007" cy="1212215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2811,15 +2814,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>394608</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>337458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>30117</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1718583</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>811167</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1661433</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2841,8 +2844,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16559893" y="64838037"/>
-          <a:ext cx="4588510" cy="1323975"/>
+          <a:off x="16668750" y="64745508"/>
+          <a:ext cx="4621167" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2858,15 +2861,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>462643</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>348343</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>408214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>2632982</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>805543</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2918732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2888,8 +2891,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16832036" y="66824678"/>
-          <a:ext cx="2707822" cy="2510518"/>
+          <a:off x="16883743" y="66721264"/>
+          <a:ext cx="2724150" cy="2510518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2907,15 +2910,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>342900</xdr:rowOff>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>609600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
-          <xdr:row>34</xdr:row>
-          <xdr:rowOff>2247900</xdr:rowOff>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>2514600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2958,15 +2961,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>3190875</xdr:rowOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>2952750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3009,15 +3012,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>228600</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>466725</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>3400425</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3060,15 +3063,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:colOff>247650</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>542925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>17</xdr:col>
-          <xdr:colOff>685800</xdr:colOff>
-          <xdr:row>37</xdr:row>
-          <xdr:rowOff>3362325</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>3724275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3109,15 +3112,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>40820</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:colOff>555170</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>707571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>29118</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>2002971</xdr:rowOff>
+      <xdr:colOff>543468</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2669721</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3137,8 +3140,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19648713" y="83439000"/>
-          <a:ext cx="2478405" cy="1962150"/>
+          <a:off x="20195720" y="83498871"/>
+          <a:ext cx="2502898" cy="1962150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3158,15 +3161,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406944</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>2124075</xdr:rowOff>
+      <xdr:colOff>826044</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2790825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3180,8 +3183,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16519071" y="83398179"/>
-          <a:ext cx="2665730" cy="2124075"/>
+          <a:off x="16954500" y="83458050"/>
+          <a:ext cx="2673894" cy="2124075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3200,16 +3203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>462642</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>291192</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1094014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>380455</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>2294164</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209005</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>3265714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3223,8 +3226,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19240499" y="87194571"/>
-          <a:ext cx="2407920" cy="2171700"/>
+          <a:off x="19931742" y="87352414"/>
+          <a:ext cx="2432413" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3246,15 +3249,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>904875</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>39</xdr:row>
-          <xdr:rowOff>2324100</xdr:rowOff>
+          <xdr:colOff>723900</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>3162300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3295,15 +3298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>168728</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:colOff>416378</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>334736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>423181</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2982686</xdr:rowOff>
+      <xdr:colOff>670831</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>3192236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3317,7 +3320,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16704128" y="91241336"/>
+          <a:off x="16951778" y="90269786"/>
           <a:ext cx="3359603" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3340,15 +3343,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>54429</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>13607</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>701193</xdr:colOff>
+          <xdr:colOff>704850</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>2911929</xdr:rowOff>
+          <xdr:rowOff>2914650</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3386,6 +3389,95 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2533650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="44577000"/>
+          <a:ext cx="3390900" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1788795</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1807845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35" descr="C:\Users\EdgarJosué\Documents\GitHub\RecursosGenerales\graficos\iconosGuiones\Ciencias Naturales\Tecnologia\TC_10_12.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16821150" y="94068900"/>
+          <a:ext cx="1503045" cy="1122045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4105,8 +4197,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="9" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4942,12 +5034,14 @@
     <row r="23" spans="1:15" s="11" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B23" s="62"/>
+        <v>IMG14</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>199</v>
+      </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="63" t="s">
         <v>192</v>
@@ -4957,19 +5051,19 @@
       </c>
       <c r="F23" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_10_02_CO_IMG14_small</v>
       </c>
       <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_10_02_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23"/>
@@ -4981,12 +5075,14 @@
     <row r="24" spans="1:15" s="11" customFormat="1" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B24" s="62"/>
+        <v>IMG15</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>199</v>
+      </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="63" t="s">
         <v>192</v>
@@ -4996,19 +5092,19 @@
       </c>
       <c r="F24" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>MA_10_02_CO_IMG15_small</v>
       </c>
       <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>MA_10_02_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>800 x 600 px</v>
       </c>
       <c r="J24" s="63"/>
       <c r="K24"/>
@@ -5018,12 +5114,12 @@
       </c>
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="e">
+      <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG16</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5035,17 +5131,17 @@
       <c r="E25" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="13" t="e">
+      <c r="F25" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G25" s="13" t="e">
+        <v>MA_10_02_CO_IMG16_small</v>
+      </c>
+      <c r="G25" s="13" t="str">
         <f ca="1">IF($F25&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H25" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H25" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG16_zoom</v>
       </c>
       <c r="I25" s="13" t="str">
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5055,12 +5151,12 @@
       <c r="K25"/>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" ht="197.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="e">
+      <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG17</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5072,17 +5168,17 @@
       <c r="E26" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="13" t="e">
+      <c r="F26" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" s="13" t="e">
+        <v>MA_10_02_CO_IMG17_small</v>
+      </c>
+      <c r="G26" s="13" t="str">
         <f ca="1">IF($F26&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H26" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H26" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG17_zoom</v>
       </c>
       <c r="I26" s="13" t="str">
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5092,9 +5188,9 @@
       <c r="K26"/>
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="e">
+      <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG18</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>202</v>
@@ -5109,17 +5205,17 @@
       <c r="E27" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="13" t="e">
+      <c r="F27" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="13" t="e">
+        <v>MA_10_02_CO_IMG18_small</v>
+      </c>
+      <c r="G27" s="13" t="str">
         <f ca="1">IF($F27&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H27" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H27" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG18_zoom</v>
       </c>
       <c r="I27" s="13" t="str">
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5129,10 +5225,10 @@
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="e">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="260.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG19</v>
       </c>
       <c r="B28" s="62" t="s">
         <v>201</v>
@@ -5147,17 +5243,17 @@
       <c r="E28" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="13" t="e">
+      <c r="F28" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="13" t="e">
+        <v>MA_10_02_CO_IMG19_small</v>
+      </c>
+      <c r="G28" s="13" t="str">
         <f ca="1">IF($F28&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H28" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H28" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG19_zoom</v>
       </c>
       <c r="I28" s="13" t="str">
         <f ca="1">IF(OR($B28&lt;&gt;"",$J28&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5167,12 +5263,12 @@
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" ht="309.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="e">
+      <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG20</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5184,17 +5280,17 @@
       <c r="E29" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="13" t="e">
+      <c r="F29" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" s="13" t="e">
+        <v>MA_10_02_CO_IMG20_small</v>
+      </c>
+      <c r="G29" s="13" t="str">
         <f ca="1">IF($F29&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H29" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H29" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG20_zoom</v>
       </c>
       <c r="I29" s="13" t="str">
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5204,12 +5300,12 @@
       <c r="K29"/>
     </row>
     <row r="30" spans="1:15" s="11" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="e">
+      <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG21</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5221,17 +5317,17 @@
       <c r="E30" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="13" t="e">
+      <c r="F30" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" s="13" t="e">
+        <v>MA_10_02_CO_IMG21_small</v>
+      </c>
+      <c r="G30" s="13" t="str">
         <f ca="1">IF($F30&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H30" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H30" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG21_zoom</v>
       </c>
       <c r="I30" s="13" t="str">
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5241,9 +5337,9 @@
       <c r="K30"/>
     </row>
     <row r="31" spans="1:15" s="11" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="e">
+      <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG22</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>199</v>
@@ -5258,17 +5354,17 @@
       <c r="E31" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="13" t="e">
+      <c r="F31" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="13" t="e">
+        <v>MA_10_02_CO_IMG22_small</v>
+      </c>
+      <c r="G31" s="13" t="str">
         <f ca="1">IF($F31&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H31" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H31" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG22_zoom</v>
       </c>
       <c r="I31" s="13" t="str">
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5278,9 +5374,9 @@
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="e">
+      <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG23</v>
       </c>
       <c r="B32" s="62" t="s">
         <v>199</v>
@@ -5295,17 +5391,17 @@
       <c r="E32" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F32" s="13" t="e">
+      <c r="F32" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="13" t="e">
+        <v>MA_10_02_CO_IMG23_small</v>
+      </c>
+      <c r="G32" s="13" t="str">
         <f ca="1">IF($F32&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H32" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H32" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG23_zoom</v>
       </c>
       <c r="I32" s="13" t="str">
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5314,10 +5410,10 @@
       <c r="J32" s="64"/>
       <c r="K32" s="64"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="e">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG24</v>
       </c>
       <c r="B33" s="62" t="s">
         <v>199</v>
@@ -5332,17 +5428,17 @@
       <c r="E33" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="13" t="e">
+      <c r="F33" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="13" t="e">
+        <v>MA_10_02_CO_IMG24_small</v>
+      </c>
+      <c r="G33" s="13" t="str">
         <f ca="1">IF($F33&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H33" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG24_zoom</v>
       </c>
       <c r="I33" s="13" t="str">
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5352,9 +5448,9 @@
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:15" s="11" customFormat="1" ht="237.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="e">
+      <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG25</v>
       </c>
       <c r="B34" s="62" t="s">
         <v>199</v>
@@ -5369,17 +5465,17 @@
       <c r="E34" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="13" t="e">
+      <c r="F34" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" s="13" t="e">
+        <v>MA_10_02_CO_IMG25_small</v>
+      </c>
+      <c r="G34" s="13" t="str">
         <f ca="1">IF($F34&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H34" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG25_zoom</v>
       </c>
       <c r="I34" s="13" t="str">
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5390,12 +5486,12 @@
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="1:15" s="11" customFormat="1" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="e">
+      <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG26</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C35" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5407,17 +5503,17 @@
       <c r="E35" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F35" s="13" t="e">
+      <c r="F35" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="13" t="e">
+        <v>MA_10_02_CO_IMG26_small</v>
+      </c>
+      <c r="G35" s="13" t="str">
         <f ca="1">IF($F35&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H35" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG26_zoom</v>
       </c>
       <c r="I35" s="13" t="str">
         <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5428,9 +5524,9 @@
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" s="11" customFormat="1" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="e">
+      <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG27</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>191</v>
@@ -5445,17 +5541,17 @@
       <c r="E36" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="13" t="e">
+      <c r="F36" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="13" t="e">
+        <v>MA_10_02_CO_IMG27_small</v>
+      </c>
+      <c r="G36" s="13" t="str">
         <f ca="1">IF($F36&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H36" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG27_zoom</v>
       </c>
       <c r="I36" s="13" t="str">
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5466,9 +5562,9 @@
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" s="11" customFormat="1" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="e">
+      <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG28</v>
       </c>
       <c r="B37" s="62" t="s">
         <v>191</v>
@@ -5483,17 +5579,17 @@
       <c r="E37" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F37" s="13" t="e">
+      <c r="F37" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" s="13" t="e">
+        <v>MA_10_02_CO_IMG28_small</v>
+      </c>
+      <c r="G37" s="13" t="str">
         <f ca="1">IF($F37&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H37" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG28_zoom</v>
       </c>
       <c r="I37" s="13" t="str">
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5503,9 +5599,9 @@
       <c r="K37"/>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1" ht="273" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="e">
+      <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG29</v>
       </c>
       <c r="B38" s="62" t="s">
         <v>191</v>
@@ -5520,17 +5616,17 @@
       <c r="E38" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="13" t="e">
+      <c r="F38" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" s="13" t="e">
+        <v>MA_10_02_CO_IMG29_small</v>
+      </c>
+      <c r="G38" s="13" t="str">
         <f ca="1">IF($F38&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H38" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H38" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG29_zoom</v>
       </c>
       <c r="I38" s="13" t="str">
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5540,9 +5636,9 @@
       <c r="K38"/>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" ht="288.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="e">
+      <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG30</v>
       </c>
       <c r="B39" s="62" t="s">
         <v>191</v>
@@ -5557,17 +5653,17 @@
       <c r="E39" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F39" s="13" t="e">
+      <c r="F39" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" s="13" t="e">
+        <v>MA_10_02_CO_IMG30_small</v>
+      </c>
+      <c r="G39" s="13" t="str">
         <f ca="1">IF($F39&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H39" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H39" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG30_zoom</v>
       </c>
       <c r="I39" s="13" t="str">
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5578,13 +5674,13 @@
       </c>
       <c r="K39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="e">
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="271.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG31</v>
       </c>
       <c r="B40" s="62" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C40" s="20" t="str">
         <f t="shared" si="0"/>
@@ -5596,17 +5692,17 @@
       <c r="E40" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="13" t="e">
+      <c r="F40" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" s="13" t="e">
+        <v>MA_10_02_CO_IMG31_small</v>
+      </c>
+      <c r="G40" s="13" t="str">
         <f ca="1">IF($F40&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H40" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG31_zoom</v>
       </c>
       <c r="I40" s="13" t="str">
         <f ca="1">IF(OR($B40&lt;&gt;"",$J40&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5617,33 +5713,31 @@
       </c>
       <c r="K40"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="e">
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="298.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>IMG32</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C41" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D41" s="63" t="s">
-        <v>192</v>
-      </c>
+      <c r="D41" s="63"/>
       <c r="E41"/>
-      <c r="F41" s="13" t="e">
+      <c r="F41" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" s="13" t="e">
+        <v>MA_10_02_CO_IMG32_small</v>
+      </c>
+      <c r="G41" s="13" t="str">
         <f ca="1">IF($F41&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" s="13" t="e">
+        <v>526 x 370 px</v>
+      </c>
+      <c r="H41" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#VALUE!</v>
+        <v>MA_10_02_CO_IMG32_zoom</v>
       </c>
       <c r="I41" s="13" t="str">
         <f ca="1">IF(OR($B41&lt;&gt;"",$J41&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
@@ -5652,7 +5746,7 @@
       <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -7881,15 +7975,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>2676525</xdr:rowOff>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>2543175</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7907,14 +8001,14 @@
               <from>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>428625</xdr:rowOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>314325</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>2343150</xdr:rowOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>2228850</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7927,19 +8021,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="PBrush" shapeId="2091" r:id="rId16">
-          <objectPr defaultSize="0" r:id="rId17">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>247650</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>3657600</xdr:rowOff>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>3143250</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7956,15 +8050,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>590550</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>2495550</xdr:rowOff>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>3028950</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -7981,15 +8075,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>342900</xdr:rowOff>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>609600</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>2247900</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>2514600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8002,19 +8096,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="PBrush" shapeId="2101" r:id="rId22">
-          <objectPr defaultSize="0" r:id="rId23">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>257175</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>3190875</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>2952750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8031,15 +8125,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>36</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>466725</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>3400425</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8056,15 +8150,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>542925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
-                <xdr:row>37</xdr:row>
-                <xdr:rowOff>3362325</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>3724275</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -8081,15 +8175,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>904875</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>39</xdr:row>
-                <xdr:rowOff>2324100</xdr:rowOff>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>3162300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
